--- a/Maternité-Naissance.xlsx/âge moyen accouchement.xlsx
+++ b/Maternité-Naissance.xlsx/âge moyen accouchement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scryn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scryn\OneDrive\Bureau\scrap\Maternité-Naissance.xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1158DE6D-F558-40AB-89B3-0BB38B3A1329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1134712-16E8-46C0-A514-23AB2A60C9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="15360" windowHeight="8232" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Données" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Âge moyen de la mère à l'accouchement</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>Âge moyen à l’accouchement¹</t>
-  </si>
-  <si>
-    <t>2014 y c. Mayotte</t>
-  </si>
-  <si>
-    <t>2014 hors Mayotte</t>
   </si>
   <si>
     <t>p : données provisoires arrêtées à fin 2021.</t>
@@ -140,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -186,9 +180,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -512,7 +503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -599,16 +592,16 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
+      <c r="A12" s="5">
+        <v>2014</v>
       </c>
       <c r="B12" s="11">
         <v>30.3</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>5</v>
+      <c r="A13" s="5">
+        <v>2013</v>
       </c>
       <c r="B13" s="11">
         <v>30.3</v>
@@ -616,31 +609,31 @@
     </row>
     <row r="14" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B14" s="11">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B15" s="11">
-        <v>30.1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>2011</v>
+      <c r="A16" s="12">
+        <v>2010</v>
       </c>
       <c r="B16" s="11">
-        <v>30</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B17" s="11">
         <v>29.9</v>
@@ -648,15 +641,15 @@
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B18" s="11">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B19" s="11">
         <v>29.8</v>
@@ -664,31 +657,31 @@
     </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B20" s="11">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B21" s="11">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B22" s="11">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B23" s="11">
         <v>29.5</v>
@@ -696,23 +689,23 @@
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B24" s="11">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B25" s="11">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B26" s="11">
         <v>29.3</v>
@@ -720,7 +713,7 @@
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B27" s="11">
         <v>29.3</v>
@@ -728,7 +721,7 @@
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B28" s="11">
         <v>29.3</v>
@@ -736,84 +729,74 @@
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B29" s="11">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B30" s="11">
-        <v>29.1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B31" s="11">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <v>1995</v>
+      <c r="A32" s="5">
+        <v>1994</v>
       </c>
       <c r="B32" s="11">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="C32" s="13"/>
     </row>
     <row r="33" spans="1:4" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>1994</v>
-      </c>
-      <c r="B33" s="11">
-        <v>28.8</v>
+      <c r="A33" s="15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" s="14" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="14" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-    </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-    </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A35:D35"/>
-  </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.196527777777778" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
